--- a/com-part-com-3anoymous-1-3-rdivision.xlsx
+++ b/com-part-com-3anoymous-1-3-rdivision.xlsx
@@ -1266,9 +1266,6 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>293</v>
-      </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
@@ -1297,9 +1294,6 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>294</v>
-      </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
@@ -1339,6 +1333,9 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
+      <c r="F8" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
@@ -1381,9 +1378,6 @@
       <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
@@ -1493,9 +1487,6 @@
       <c r="E19" t="s">
         <v>67</v>
       </c>
-      <c r="F19" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
@@ -1608,6 +1599,9 @@
       <c r="E27" t="s">
         <v>99</v>
       </c>
+      <c r="F27" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
@@ -1913,6 +1907,9 @@
       <c r="E49" t="s">
         <v>186</v>
       </c>
+      <c r="F49" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" t="s">
@@ -1997,6 +1994,9 @@
       <c r="E55" t="s">
         <v>210</v>
       </c>
+      <c r="F55" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" t="s">
@@ -2112,6 +2112,9 @@
       <c r="E63" t="s">
         <v>243</v>
       </c>
+      <c r="F63" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" t="s">
@@ -2126,8 +2129,11 @@
       <c r="E64" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="65" spans="2:6">
+      <c r="F64" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
       <c r="B65" t="s">
         <v>248</v>
       </c>
@@ -2141,7 +2147,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:5">
       <c r="B66" t="s">
         <v>252</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:5">
       <c r="B67" t="s">
         <v>256</v>
       </c>
@@ -2169,7 +2175,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:5">
       <c r="B68" t="s">
         <v>260</v>
       </c>
@@ -2183,7 +2189,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:5">
       <c r="B69" t="s">
         <v>264</v>
       </c>
@@ -2197,7 +2203,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:5">
       <c r="B70" t="s">
         <v>268</v>
       </c>
@@ -2208,7 +2214,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:5">
       <c r="B71" t="s">
         <v>271</v>
       </c>
@@ -2222,7 +2228,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:5">
       <c r="B72" t="s">
         <v>275</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:5">
       <c r="B73" t="s">
         <v>279</v>
       </c>
@@ -2250,7 +2256,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:5">
       <c r="B74" t="s">
         <v>283</v>
       </c>
@@ -2263,11 +2269,8 @@
       <c r="E74" t="s">
         <v>286</v>
       </c>
-      <c r="F74" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6">
+    </row>
+    <row r="75" spans="2:5">
       <c r="B75" t="s">
         <v>287</v>
       </c>
@@ -2279,9 +2282,6 @@
       </c>
       <c r="E75" t="s">
         <v>290</v>
-      </c>
-      <c r="F75" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2318,9 +2318,6 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>293</v>
-      </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
@@ -2335,9 +2332,6 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
-        <v>294</v>
-      </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
@@ -2391,6 +2385,9 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
+      <c r="F8" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
@@ -2528,6 +2525,9 @@
       <c r="E18" t="s">
         <v>61</v>
       </c>
+      <c r="F18" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
@@ -2598,9 +2598,6 @@
       <c r="E23" t="s">
         <v>89</v>
       </c>
-      <c r="F23" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
@@ -3046,6 +3043,9 @@
       <c r="E55" t="s">
         <v>226</v>
       </c>
+      <c r="F55" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" t="s">
@@ -3119,6 +3119,9 @@
       <c r="E60" t="s">
         <v>233</v>
       </c>
+      <c r="F60" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" t="s">
@@ -3147,6 +3150,9 @@
       <c r="E62" t="s">
         <v>235</v>
       </c>
+      <c r="F62" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" t="s">
@@ -3189,6 +3195,9 @@
       <c r="E65" t="s">
         <v>266</v>
       </c>
+      <c r="F65" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" t="s">
@@ -3231,9 +3240,6 @@
       <c r="E68" t="s">
         <v>236</v>
       </c>
-      <c r="F68" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" t="s">
@@ -3315,9 +3321,6 @@
       <c r="E74" t="s">
         <v>286</v>
       </c>
-      <c r="F74" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" t="s">
@@ -3331,9 +3334,6 @@
       </c>
       <c r="E75" t="s">
         <v>290</v>
-      </c>
-      <c r="F75" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -3370,9 +3370,6 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>293</v>
-      </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
@@ -3387,9 +3384,6 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
-        <v>294</v>
-      </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
@@ -3443,6 +3437,9 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
+      <c r="F8" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
@@ -3524,9 +3521,6 @@
       <c r="E14" t="s">
         <v>51</v>
       </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" t="s">
@@ -3555,6 +3549,9 @@
       <c r="E16" t="s">
         <v>291</v>
       </c>
+      <c r="F16" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
@@ -3569,9 +3566,6 @@
       <c r="E17" t="s">
         <v>53</v>
       </c>
-      <c r="F17" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
@@ -3628,6 +3622,9 @@
       <c r="E21" t="s">
         <v>73</v>
       </c>
+      <c r="F21" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
@@ -3783,7 +3780,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:6">
       <c r="B33" t="s">
         <v>122</v>
       </c>
@@ -3797,7 +3794,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:6">
       <c r="B34" t="s">
         <v>140</v>
       </c>
@@ -3810,8 +3807,11 @@
       <c r="E34" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="F34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" t="s">
         <v>144</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:6">
       <c r="B36" t="s">
         <v>126</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:6">
       <c r="B37" t="s">
         <v>135</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:6">
       <c r="B38" t="s">
         <v>156</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:6">
       <c r="B39" t="s">
         <v>123</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:6">
       <c r="B40" t="s">
         <v>150</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:6">
       <c r="B41" t="s">
         <v>161</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:6">
       <c r="B42" t="s">
         <v>153</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="2:6">
       <c r="B43" t="s">
         <v>159</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:6">
       <c r="B44" t="s">
         <v>183</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:6">
       <c r="B45" t="s">
         <v>227</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="2:6">
       <c r="B46" t="s">
         <v>163</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:6">
       <c r="B47" t="s">
         <v>169</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="2:6">
       <c r="B48" t="s">
         <v>203</v>
       </c>
@@ -4188,6 +4188,9 @@
       <c r="E61" t="s">
         <v>243</v>
       </c>
+      <c r="F61" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" t="s">
@@ -4272,6 +4275,9 @@
       <c r="E67" t="s">
         <v>261</v>
       </c>
+      <c r="F67" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="68" spans="2:6">
       <c r="B68" t="s">
@@ -4367,9 +4373,6 @@
       <c r="E74" t="s">
         <v>286</v>
       </c>
-      <c r="F74" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" t="s">
@@ -4383,9 +4386,6 @@
       </c>
       <c r="E75" t="s">
         <v>290</v>
-      </c>
-      <c r="F75" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -4422,9 +4422,6 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>293</v>
-      </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
@@ -4439,9 +4436,6 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
-        <v>294</v>
-      </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
@@ -4495,6 +4489,9 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
+      <c r="F8" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
@@ -4551,6 +4548,9 @@
       <c r="E12" t="s">
         <v>40</v>
       </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
@@ -4604,9 +4604,6 @@
       <c r="E16" t="s">
         <v>59</v>
       </c>
-      <c r="F16" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
@@ -4622,7 +4619,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -4680,6 +4677,9 @@
       <c r="E21" t="s">
         <v>77</v>
       </c>
+      <c r="F21" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
@@ -5069,6 +5069,9 @@
       <c r="E49" t="s">
         <v>192</v>
       </c>
+      <c r="F49" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" t="s">
@@ -5083,6 +5086,9 @@
       <c r="E50" t="s">
         <v>176</v>
       </c>
+      <c r="F50" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" t="s">
@@ -5283,7 +5289,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:5">
       <c r="B65" t="s">
         <v>252</v>
       </c>
@@ -5297,7 +5303,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:5">
       <c r="B66" t="s">
         <v>250</v>
       </c>
@@ -5311,7 +5317,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:5">
       <c r="B67" t="s">
         <v>260</v>
       </c>
@@ -5325,7 +5331,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:5">
       <c r="B68" t="s">
         <v>254</v>
       </c>
@@ -5339,7 +5345,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:5">
       <c r="B69" t="s">
         <v>253</v>
       </c>
@@ -5353,7 +5359,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:5">
       <c r="B70" t="s">
         <v>268</v>
       </c>
@@ -5364,7 +5370,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:5">
       <c r="B71" t="s">
         <v>271</v>
       </c>
@@ -5378,7 +5384,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:5">
       <c r="B72" t="s">
         <v>275</v>
       </c>
@@ -5392,7 +5398,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:5">
       <c r="B73" t="s">
         <v>279</v>
       </c>
@@ -5406,7 +5412,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:5">
       <c r="B74" t="s">
         <v>283</v>
       </c>
@@ -5419,11 +5425,8 @@
       <c r="E74" t="s">
         <v>286</v>
       </c>
-      <c r="F74" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6">
+    </row>
+    <row r="75" spans="2:5">
       <c r="B75" t="s">
         <v>287</v>
       </c>
@@ -5435,9 +5438,6 @@
       </c>
       <c r="E75" t="s">
         <v>290</v>
-      </c>
-      <c r="F75" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
